--- a/servercsv/goods.xlsx
+++ b/servercsv/goods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
   <si>
     <t>all,required,string</t>
   </si>
@@ -144,25 +144,6 @@
     <t>属性6</t>
   </si>
   <si>
-    <t>arr_attribute_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr_attribute_2</t>
-  </si>
-  <si>
-    <t>arr_attribute_3</t>
-  </si>
-  <si>
-    <t>arr_attribute_4</t>
-  </si>
-  <si>
-    <t>arr_attribute_5</t>
-  </si>
-  <si>
-    <t>arr_attribute_6</t>
-  </si>
-  <si>
     <t>问题1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,11 +262,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规格id1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr_specification_1</t>
+    <t>arr_specificationid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_specificationid_2</t>
+  </si>
+  <si>
+    <t>arr_specificationid_3</t>
+  </si>
+  <si>
+    <t>arr_specificationid_4</t>
+  </si>
+  <si>
+    <t>arr_specificationid_5</t>
+  </si>
+  <si>
+    <t>arr_specificationid_6</t>
+  </si>
+  <si>
+    <t>规格1id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格2id</t>
+  </si>
+  <si>
+    <t>规格3id</t>
+  </si>
+  <si>
+    <t>规格4id</t>
+  </si>
+  <si>
+    <t>规格5id</t>
+  </si>
+  <si>
+    <t>规格6id</t>
+  </si>
+  <si>
+    <t>hf1_1</t>
+  </si>
+  <si>
+    <t>护肤1_物品1</t>
+  </si>
+  <si>
+    <t>我的护肤1_物品1</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1572021724994&amp;di=0f242474ed4be196d7884473751e951a&amp;imgtype=0&amp;src=http%3A%2F%2Fphotocdn.sohu.com%2F20120205%2FImg333759445.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1572021724994&amp;di=0f242474ed4be196d7884473751e951a&amp;imgtype=0&amp;src=http%3A%2F%2Fphotocdn.sohu.com%2F20120205%2FImg333759445.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_attribute_name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_attribute_name_2</t>
+  </si>
+  <si>
+    <t>arr_attribute_name_3</t>
+  </si>
+  <si>
+    <t>arr_attribute_name_4</t>
+  </si>
+  <si>
+    <t>arr_attribute_name_5</t>
+  </si>
+  <si>
+    <t>arr_attribute_name_6</t>
+  </si>
+  <si>
+    <t>brandid_1</t>
+  </si>
+  <si>
+    <t>兰蔻</t>
+  </si>
+  <si>
+    <t>hf1</t>
+  </si>
+  <si>
+    <t>hf1_2</t>
+  </si>
+  <si>
+    <t>护肤1_物品2</t>
+  </si>
+  <si>
+    <t>我的护肤1_物品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf1_1_s_1</t>
+  </si>
+  <si>
+    <t>hf1_1_s_2</t>
+  </si>
+  <si>
+    <t>hf1_2_s_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf1_2_s_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandid_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKII</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +466,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,10 +491,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -344,9 +506,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -646,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -657,15 +821,15 @@
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="7" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="21.625" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="18.375" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="21.625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="36" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="42" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -673,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -721,64 +885,91 @@
         <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:54">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -890,8 +1081,35 @@
       <c r="AK2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="AL2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:54">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -899,10 +1117,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -929,61 +1147,61 @@
         <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>1</v>
@@ -998,15 +1216,184 @@
         <v>7</v>
       </c>
       <c r="AJ3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AK3" s="2" t="s">
-        <v>77</v>
+      <c r="AM3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+    </row>
+    <row r="4" spans="1:54">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>99999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>11111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="L4" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>